--- a/biology/Médecine/Axel_W._Bauer/Axel_W._Bauer.xlsx
+++ b/biology/Médecine/Axel_W._Bauer/Axel_W._Bauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axel W. Bauer (né le 6 avril 1955 à Karlsruhe) est un historien médical allemand, philosophe des sciences et éthicien médical.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé du lycée Bismarck de Karlsruhe (de) (1974), Axel Bauer étudie la médecine à l'Université de Fribourg de 1974 à 1980. La même année, il y est après avoir soutenu sa thèse sur Schwerhörigkeit und Hörgerät. Eine Studie über die Ausführung stereophoner Hörgeräteversorgung in der Freiburger HNO-Klinik und ihre Ergebnisse pour son doctorat. En 1981, il devient assistant universitaire de Heinrich Schipperges (de) à l'Institut d'histoire de la médecine de l'Université de Heidelberg. En 1986, Axel Bauer est habilité à la Faculté de médecine des sciences naturelles de l'Université de Heidelberg avec sa thèse d'habilitation Pathologie auf den Versammlungen deutscher Naturforscher und Ärzte von 1822 bis 1872. Die Krankheitslehre auf dem Weg zur naturwissenschaftlichen Morphologie et devient maître de conférences pour l'histoire de la médecine. De 1986 à 1989, il est représentant de la chaire C4 d'histoire de la médecine à l'Université de Heidelberg. De 1987 à 1989, il est directeur par intérim de l'Institut d'histoire de la médecine.
 De 1989 à 1995, Bauer est chargé de cours à la faculté de médecine de l'Université de Heidelberg, depuis 1992, il est également professeur auxiliaire. En 2002, sa licence d' enseignement est étendue aux domaines de l'histoire, de la théorie et de l'éthique de la médecine. De 1987 à 2004, il est chargé de cours à temps partiel en histoire de la médecine à la faculté de médecine clinique de Mannheim à l'Université de Heidelberg. Depuis 2004, Bauer est professeur d'histoire, de théorie et d'éthique de la médecine à la Faculté de médecine de Mannheim de l'Université de Heidelberg (Université de médecine de Mannheim (de)) et chef de ce département.
@@ -544,7 +558,9 @@
           <t>Adhésions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De 2004 à 2010 : Membre fondateur et président du Comité d'éthique clinique (de) du Centre médical universitaire de Mannheim
 De 2001 à 2005 : Membre du Conseil consultatif scientifique sur la biotechnologie et le génie génétique du groupe parlementaire CDU/CSU au Bundestag
@@ -581,10 +597,12 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les recherches médico-historiques de Bauer portent sur l'histoire de la pathologie et de l'anatomie pathologique, l'institutionnalisation des disciplines médicales aux XIXe et XXe siècles et développement de la médecine scientifique aux XIXe et XXe siècles. De plus, il effectue des recherches et enseigne dans les domaines de la philosophie des sciences en médecine ainsi que de l'éthique médicale et de la bioéthique. Ici, Axel Bauer s'intéresse principalement à la recherche sur les cellules souches embryonnaires humaines, au diagnostic préimplantatoire, au thème de l'euthanasie et du suicide assisté, et aux questions éthiques dans le diagnostic et le traitement du cancer.
-En médecine et en bioéthique, Bauer représente des positions majoritairement conservatrices, tant en ce qui concerne la protection de la vie humaine précoce qu'en ce qui concerne ce qu'on appelle l'euthanasie. Bauer argumente rationnellement en termes de philosophie et d'éthique juridique, mais compte tenu du trilemme de Munchausen, il doute que les déclarations morales ne puissent finalement être justifiées en termes métaphysiques. En métaéthique, Bauer, à la suite de John R. Searle et Rafael Ferber (de), considère que les faits moraux doivent être scientifiquement reconstruits comme des institutions sociales (faits institutionnels) et non comme des entités objectivement données (faits brutaux)[1].
+En médecine et en bioéthique, Bauer représente des positions majoritairement conservatrices, tant en ce qui concerne la protection de la vie humaine précoce qu'en ce qui concerne ce qu'on appelle l'euthanasie. Bauer argumente rationnellement en termes de philosophie et d'éthique juridique, mais compte tenu du trilemme de Munchausen, il doute que les déclarations morales ne puissent finalement être justifiées en termes métaphysiques. En métaéthique, Bauer, à la suite de John R. Searle et Rafael Ferber (de), considère que les faits moraux doivent être scientifiquement reconstruits comme des institutions sociales (faits institutionnels) et non comme des entités objectivement données (faits brutaux).
 En tant que philosophe des sciences, Bauer est particulièrement connu pour avoir formulé quatre axiomes d'acquisition systématique de connaissances en médecine, selon lesquels la médecine conventionnelle et la médecine alternative utilisent différentes formes d'acquisition de connaissances qui ne sont en principe pas compatibles entre elles. Bauer lui-même est du côté de la médecine scientifique fondée sur des preuves dans cette controverse.
 </t>
         </is>
@@ -616,8 +634,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>monographies
-Die Krankheitslehre auf dem Weg zur naturwissenschaftlichen Morphologie. Pathologie auf den Versammlungen Deutscher Naturforscher und Ärzte von 1822–1872 (= Schriftenreihe zur Geschichte der Versammlungen Deutscher Naturforscher und Ärzte. Bd. 5). WVG, Stuttgart 1989.
+          <t>monographies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Die Krankheitslehre auf dem Weg zur naturwissenschaftlichen Morphologie. Pathologie auf den Versammlungen Deutscher Naturforscher und Ärzte von 1822–1872 (= Schriftenreihe zur Geschichte der Versammlungen Deutscher Naturforscher und Ärzte. Bd. 5). WVG, Stuttgart 1989.
 Theorie der Medizin. Dialoge zwischen Grundlagenfächern und Klinik. Barth, Heidelberg/Leipzig 1995.
 Medizinische Ethik am Beginn des 21. Jahrhunderts. Theoretische Konzepte, Klinische Probleme, Ärztliches Handeln. Barth, Heidelberg/Leipzig 1998.
 als Hrsg. mit Reinhold Haux, Wolfgang Eich, Wolfgang Herzog (de), Johann Caspar Rüegg, Jürgen Windeler (de): Wissenschaftlichkeit in der Medizin, 2: Physiologie und Psychosomatik. Versuche einer Annäherung. Frankfurt am Main 1998.
@@ -626,9 +649,43 @@
 mit Anthony D. Ho: „Nicht blos künstlich in einem Spitale“. Zweihundert Jahre Medizinische Universitäts-Poliklinik Heidelberg und ihr Weg von der Stadtpraxis bis zur Blutstammzelltransplantation. Heidelberg 2005; 2. Auflage 2016.
 als Hrsg. mit Grietje Beck: Anästhesie am Mannheimer Universitätsklinikum 1952–2009. Von den ersten Narkoseärztinnen bis zur Klinik für Anästhesiologie und Operative Intensivmedizin. Mannheim 2009.
 Normative Entgrenzung. Themen und Dilemmata der Medizin- und Bioethik in Deutschland. Springer VS, Wiesbaden 2017.
-als Hrsg. mit Ralf-Dieter Hofheinz und Jochen S. Utikal: Ethical Challenges in Cancer Diagnosis and Therapy. Springer Nature Switzerland AG, Cham 2021.
-Articles dans des anthologies et revues spécialisées
-Bemerkungen zur Verwendung des Terminus ‘Anthropologie’ in der Medizin der Neuzeit (16.–19. Jahrhundert). In: Eduard Seidler (Hrsg.): Medizinische Anthropologie. Beiträge für eine Theoretische Pathologie. Berlin/Heidelberg/New York/Tokyo 1984 (= Veröffentlichungen aus der Forschungsstelle für Theoretische Pathologie der Heidelberger Akademie der Wissenschaften.) S. 32–55.
+als Hrsg. mit Ralf-Dieter Hofheinz und Jochen S. Utikal: Ethical Challenges in Cancer Diagnosis and Therapy. Springer Nature Switzerland AG, Cham 2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Axel_W._Bauer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axel_W._Bauer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles dans des anthologies et revues spécialisées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bemerkungen zur Verwendung des Terminus ‘Anthropologie’ in der Medizin der Neuzeit (16.–19. Jahrhundert). In: Eduard Seidler (Hrsg.): Medizinische Anthropologie. Beiträge für eine Theoretische Pathologie. Berlin/Heidelberg/New York/Tokyo 1984 (= Veröffentlichungen aus der Forschungsstelle für Theoretische Pathologie der Heidelberger Akademie der Wissenschaften.) S. 32–55.
 Georg Franck von Franckenau. Repräsentant einer empirischen Heilkunde im Zeitalter des Barock. In: Wilhelm Doerr (de) (Hrsg.): Semper Apertus. Sechshundert Jahre Ruprecht-Karls-Universität Heidelberg 1386–1986. Festschrift in sechs Bänden. Band 1: Mittelalter und frühe Neuzeit (1386–1803). Berlin/Heidelberg/New York/Tokyo 1985, S. 440–462.
 Axiome des systematischen Erkenntnisgewinns in der Medizin. In: Der Internist (de). Bd. 38 (1997), S. 299–306.
 Der Körper als Marionette? Georg Ernst Stahl und das Wagnis einer psychosomatischen Medizin. In: Dietrich von Engelhardt, Alfred Gierer (Hrsg.): Georg Ernst Stahl (1659–1734) in wissenschaftshistorischer Sicht. Leopoldina-Meeting am 29. und 30. Oktober 1998 in Halle (S.). In: Acta historica Leopoldina. Nr. 30, Halle (Saale) 2000, S. 81–95.
